--- a/tk2022.xlsx
+++ b/tk2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF7D5E-F364-4A15-AED5-63080AFDE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFC082-1D16-4FE1-AACC-0AAE91A48AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FC15F70-2930-46A5-9B19-2844374B8EF4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="60">
   <si>
     <t>Боян Тодоров</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Анета Неделчева</t>
-  </si>
-  <si>
-    <t>Georgi Topalov</t>
   </si>
   <si>
     <t>Радмила</t>
@@ -630,7 +627,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,73 +637,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +820,17 @@
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,8 +888,17 @@
       <c r="S4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -942,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,8 +1074,17 @@
       <c r="S7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1118,8 +1142,17 @@
       <c r="S8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1178,7 +1211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1354,8 +1387,17 @@
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1473,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1573,17 @@
       <c r="S15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="69.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1590,8 +1641,17 @@
       <c r="S16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1650,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1708,8 +1768,17 @@
       <c r="S18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1767,8 +1836,17 @@
       <c r="S19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1944,8 +2022,17 @@
       <c r="S22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2004,68 +2091,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" s="1">
-        <v>197198</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>123467</v>
@@ -2119,12 +2168,21 @@
         <v>5</v>
       </c>
       <c r="S25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25">
+        <v>20</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>115662</v>
